--- a/Data/Excel/2018/vaseis3.xlsx
+++ b/Data/Excel/2018/vaseis3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\My Projects\ypologismosMorion\Data\Excel\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE308470-3F1A-4186-A14C-4B006D702375}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FF85EA-6828-4DB9-9506-A4BF53899958}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5356C5D-75B3-4A5F-9292-A5E4D0B336F6}"/>
   </bookViews>
@@ -43,27 +43,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="285">
-  <si>
-    <t>Σχολή</t>
-  </si>
-  <si>
-    <t>Τύπος Εκπαιδευτικού Ιδρύματος</t>
-  </si>
-  <si>
-    <t>Πόλη</t>
-  </si>
-  <si>
-    <t>Βάση (Μόρια) Εισαγωγής</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="151">
   <si>
     <t>ΑΕΙ</t>
   </si>
   <si>
     <t>Αθήνα</t>
-  </si>
-  <si>
-    <t>19.029</t>
   </si>
   <si>
     <t>ΣΤΡΑΤΙΩΤΙΚΕΣ_x000D_
@@ -74,513 +59,108 @@
     <t>Θεσσαλονίκη</t>
   </si>
   <si>
-    <t>18.915</t>
-  </si>
-  <si>
-    <t>18.808</t>
-  </si>
-  <si>
     <t>Πάτρα</t>
   </si>
   <si>
-    <t>18.710</t>
-  </si>
-  <si>
-    <t>18.694</t>
-  </si>
-  <si>
-    <t>18.662</t>
-  </si>
-  <si>
     <t>Ιωάννινα</t>
   </si>
   <si>
-    <t>18.597</t>
-  </si>
-  <si>
     <t>Λάρισα</t>
   </si>
   <si>
-    <t>18.564</t>
-  </si>
-  <si>
-    <t>18.526</t>
-  </si>
-  <si>
     <t>Ηράκλειο</t>
   </si>
   <si>
-    <t>18.519</t>
-  </si>
-  <si>
     <t>Αλεξ/πολη</t>
   </si>
   <si>
-    <t>18.451</t>
-  </si>
-  <si>
-    <t>18.382</t>
-  </si>
-  <si>
-    <t>18.344</t>
-  </si>
-  <si>
-    <t>18.198</t>
-  </si>
-  <si>
-    <t>18.193</t>
-  </si>
-  <si>
-    <t>18.172</t>
-  </si>
-  <si>
-    <t>18.094</t>
-  </si>
-  <si>
-    <t>18.051</t>
-  </si>
-  <si>
-    <t>18.008</t>
-  </si>
-  <si>
-    <t>17.924</t>
-  </si>
-  <si>
-    <t>17.889</t>
-  </si>
-  <si>
     <t>Καρδίτσα</t>
   </si>
   <si>
-    <t>17.829</t>
-  </si>
-  <si>
-    <t>17.761</t>
-  </si>
-  <si>
-    <t>17.622</t>
-  </si>
-  <si>
-    <t>17.588</t>
-  </si>
-  <si>
-    <t>17.587</t>
-  </si>
-  <si>
-    <t>17.586</t>
-  </si>
-  <si>
-    <t>17.522</t>
-  </si>
-  <si>
-    <t>17.349</t>
-  </si>
-  <si>
-    <t>17.222</t>
-  </si>
-  <si>
-    <t>17.096</t>
-  </si>
-  <si>
-    <t>17.085</t>
-  </si>
-  <si>
-    <t>17.050</t>
-  </si>
-  <si>
-    <t>17.028</t>
-  </si>
-  <si>
     <t>Αιγάλεω</t>
   </si>
   <si>
-    <t>17.023</t>
-  </si>
-  <si>
-    <t>17.011</t>
-  </si>
-  <si>
-    <t>16.867</t>
-  </si>
-  <si>
-    <t>16.825</t>
-  </si>
-  <si>
-    <t>16.631</t>
-  </si>
-  <si>
     <t>ΤΕΙ</t>
   </si>
   <si>
-    <t>16.535</t>
-  </si>
-  <si>
-    <t>16.473</t>
-  </si>
-  <si>
     <t>Τρίκαλα</t>
   </si>
   <si>
-    <t>16.372</t>
-  </si>
-  <si>
     <t>Βόλος</t>
   </si>
   <si>
-    <t>16.175</t>
-  </si>
-  <si>
-    <t>16.162</t>
-  </si>
-  <si>
-    <t>16.059</t>
-  </si>
-  <si>
     <t>Σέρρες</t>
   </si>
   <si>
-    <t>15.825</t>
-  </si>
-  <si>
-    <t>15.682</t>
-  </si>
-  <si>
-    <t>15.490</t>
-  </si>
-  <si>
-    <t>15.473</t>
-  </si>
-  <si>
-    <t>15.462</t>
-  </si>
-  <si>
-    <t>15.433</t>
-  </si>
-  <si>
     <t>Λαμία</t>
   </si>
   <si>
-    <t>15.365</t>
-  </si>
-  <si>
     <t>Κομοτηνή</t>
   </si>
   <si>
-    <t>15.352</t>
-  </si>
-  <si>
-    <t>15.346</t>
-  </si>
-  <si>
-    <t>15.340</t>
-  </si>
-  <si>
-    <t>15.313</t>
-  </si>
-  <si>
     <t>Αίγιο</t>
   </si>
   <si>
-    <t>15.184</t>
-  </si>
-  <si>
-    <t>15.095</t>
-  </si>
-  <si>
-    <t>15.006</t>
-  </si>
-  <si>
-    <t>14.986</t>
-  </si>
-  <si>
-    <t>14.930</t>
-  </si>
-  <si>
-    <t>14.815</t>
-  </si>
-  <si>
-    <t>14.748</t>
-  </si>
-  <si>
     <t>Τρίπολη</t>
   </si>
   <si>
-    <t>14.716</t>
-  </si>
-  <si>
-    <t>14.674</t>
-  </si>
-  <si>
-    <t>14.668</t>
-  </si>
-  <si>
-    <t>14.654</t>
-  </si>
-  <si>
-    <t>14.647</t>
-  </si>
-  <si>
-    <t>14.571</t>
-  </si>
-  <si>
-    <t>14.352</t>
-  </si>
-  <si>
     <t>Ίλιον</t>
   </si>
   <si>
-    <t>14.273</t>
-  </si>
-  <si>
-    <t>14.267</t>
-  </si>
-  <si>
-    <t>14.158</t>
-  </si>
-  <si>
     <t>Καλαμάτα</t>
   </si>
   <si>
-    <t>14.137</t>
-  </si>
-  <si>
-    <t>14.105</t>
-  </si>
-  <si>
-    <t>14.058</t>
-  </si>
-  <si>
-    <t>13.899</t>
-  </si>
-  <si>
-    <t>13.865</t>
-  </si>
-  <si>
-    <t>13.847</t>
-  </si>
-  <si>
-    <t>13.841</t>
-  </si>
-  <si>
     <t>Ρέθυμνο</t>
   </si>
   <si>
-    <t>13.782</t>
-  </si>
-  <si>
-    <t>13.719</t>
-  </si>
-  <si>
-    <t>13.697</t>
-  </si>
-  <si>
-    <t>13.689</t>
-  </si>
-  <si>
-    <t>13.662</t>
-  </si>
-  <si>
-    <t>13.618</t>
-  </si>
-  <si>
-    <t>13.454</t>
-  </si>
-  <si>
-    <t>13.334</t>
-  </si>
-  <si>
-    <t>13.318</t>
-  </si>
-  <si>
-    <t>13.314</t>
-  </si>
-  <si>
-    <t>13.294</t>
-  </si>
-  <si>
     <t>Φλώρινα</t>
   </si>
   <si>
-    <t>13.244</t>
-  </si>
-  <si>
     <t>Πτολεμαΐδα</t>
   </si>
   <si>
-    <t>12.956</t>
-  </si>
-  <si>
-    <t>12.940</t>
-  </si>
-  <si>
-    <t>12.840</t>
-  </si>
-  <si>
-    <t>12.821</t>
-  </si>
-  <si>
     <t>Σητεία</t>
   </si>
   <si>
-    <t>12.817</t>
-  </si>
-  <si>
     <t>Ρόδος</t>
   </si>
   <si>
-    <t>12.777</t>
-  </si>
-  <si>
-    <t>12.573</t>
-  </si>
-  <si>
-    <t>12.495</t>
-  </si>
-  <si>
-    <t>12.428</t>
-  </si>
-  <si>
-    <t>12.382</t>
-  </si>
-  <si>
-    <t>12.316</t>
-  </si>
-  <si>
-    <t>12.289</t>
-  </si>
-  <si>
-    <t>12.284</t>
-  </si>
-  <si>
-    <t>12.275</t>
-  </si>
-  <si>
-    <t>12.264</t>
-  </si>
-  <si>
-    <t>12.126</t>
-  </si>
-  <si>
-    <t>12.072</t>
-  </si>
-  <si>
     <t>Κέρκυρα</t>
   </si>
   <si>
-    <t>12.000</t>
-  </si>
-  <si>
-    <t>11.932</t>
-  </si>
-  <si>
-    <t>11.779</t>
-  </si>
-  <si>
     <t>Λήμνος</t>
   </si>
   <si>
-    <t>11.770</t>
-  </si>
-  <si>
     <t>Διδυμότειχο</t>
   </si>
   <si>
-    <t>11.541</t>
-  </si>
-  <si>
-    <t>11.254</t>
-  </si>
-  <si>
-    <t>11.223</t>
-  </si>
-  <si>
     <t>Αργοστόλι</t>
   </si>
   <si>
-    <t>10.975</t>
-  </si>
-  <si>
     <t>Δράμα</t>
   </si>
   <si>
-    <t>10.946</t>
-  </si>
-  <si>
     <t>Ορεστιάδα</t>
   </si>
   <si>
-    <t>10.805</t>
-  </si>
-  <si>
     <t>Μυτιλήνη</t>
   </si>
   <si>
-    <t>10.713</t>
-  </si>
-  <si>
-    <t>10.550</t>
-  </si>
-  <si>
     <t>Αγρίνιο</t>
   </si>
   <si>
-    <t>10.526</t>
-  </si>
-  <si>
-    <t>10.394</t>
-  </si>
-  <si>
     <t>Αρτα</t>
   </si>
   <si>
-    <t>10.359</t>
-  </si>
-  <si>
-    <t>10.075</t>
-  </si>
-  <si>
-    <t>9.992</t>
-  </si>
-  <si>
-    <t>9.925</t>
-  </si>
-  <si>
-    <t>9.633</t>
-  </si>
-  <si>
     <t>Αμαλιάδα</t>
   </si>
   <si>
-    <t>9.523</t>
-  </si>
-  <si>
-    <t>9.420</t>
-  </si>
-  <si>
-    <t>9.419</t>
-  </si>
-  <si>
-    <t>9.358</t>
-  </si>
-  <si>
     <t>Καρπενήσι</t>
   </si>
   <si>
-    <t>9.207</t>
-  </si>
-  <si>
     <t>Μεσολόγγι</t>
   </si>
   <si>
-    <t>9.144</t>
-  </si>
-  <si>
-    <t>Στήλη3</t>
-  </si>
-  <si>
-    <t>Στήλη4</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -701,9 +281,6 @@
     <t>Επιστήμης Τροφίμων και Διατροφής του Ανθρώπου</t>
   </si>
   <si>
-    <t>ΑΛΕΞΑΝΔΡΕΙΟ Τ.Ε.Ι. ΘΕΣΣΑΛΟΝΙΚΗΣ</t>
-  </si>
-  <si>
     <t>(Δεν υπάρχει στο Μηχανογραφικό του 2019)</t>
   </si>
   <si>
@@ -728,9 +305,6 @@
     <t>Διατροφής και Διαιτολογίας</t>
   </si>
   <si>
-    <t>Τ.Ε.Ι. ΣΤΕΡΕΑΣ ΕΛΛΑΔΑΣ</t>
-  </si>
-  <si>
     <t>Βιοϊατρικών Επιστημών</t>
   </si>
   <si>
@@ -740,9 +314,6 @@
     <t>Επιστήμης και Τεχνολογίας Τροφίμων</t>
   </si>
   <si>
-    <t>Τ.Ε.Ι. ΔΥΤΙΚΗΣ ΕΛΛΑΔΑΣ</t>
-  </si>
-  <si>
     <t>Μουσικών Σπουδών</t>
   </si>
   <si>
@@ -770,21 +341,12 @@
     <t xml:space="preserve"> Φυτικής Παραγωγής και Αγροτικού Περιβάλλοντος</t>
   </si>
   <si>
-    <t>Τ.Ε.Ι. ΗΠΕΙΡΟΥ</t>
-  </si>
-  <si>
     <t>Επιστήμης Ζωικής Παραγωγής</t>
   </si>
   <si>
     <t>Αγωγής και Φροντίδας στην Πρώιμη Παιδική Ηλικία</t>
   </si>
   <si>
-    <t>Τ.Ε.Ι. ΘΕΣΣΑΛΙΑΣ</t>
-  </si>
-  <si>
-    <t>Τ.Ε.Ι. ΠΕΛΟΠΟΝΝΗΣΟΥ</t>
-  </si>
-  <si>
     <t>Θεάτρου</t>
   </si>
   <si>
@@ -824,9 +386,6 @@
     <t>ΠΑΝΕΠΙΣΤΗΜΙΟ ΔΥΤΙΚΗΣ ΜΑΚΕΔΟΝΙΑΣ</t>
   </si>
   <si>
-    <t>Τ.Ε.Ι. ΔΥΤΙΚΗΣ ΜΑΚΕΔΟΝΙΑΣ</t>
-  </si>
-  <si>
     <t>Προσχολικής Αγωγής</t>
   </si>
   <si>
@@ -836,9 +395,6 @@
     <t>Οπτικής και Οπτομετρίας</t>
   </si>
   <si>
-    <t>Τ.Ε.Ι. ΚΡΗΤΗΣ</t>
-  </si>
-  <si>
     <t>ΠΑΝΕΠΙΣΤΗΜΙΟ ΑΙΓΑΙΟΥ</t>
   </si>
   <si>
@@ -860,18 +416,12 @@
     <t>Επιστήμης Τροφίμων και Διατροφής</t>
   </si>
   <si>
-    <t>Τ.Ε.Ι. ΑΝΑΤΟΛΙΚΗΣ ΜΑΚΕΔΟΝΙΑΣ &amp; ΘΡΑΚΗΣ</t>
-  </si>
-  <si>
     <t>Τεχνολόγων Γεωπόνων</t>
   </si>
   <si>
     <t>Τεχνών Ήχου και Εικόνας</t>
   </si>
   <si>
-    <t>Τ.Ε.Ι. ΙΟΝΙΩΝ ΝΗΣΩΝ</t>
-  </si>
-  <si>
     <t>Οινολογίας και Τεχνολογίας Ποτών</t>
   </si>
   <si>
@@ -899,7 +449,55 @@
     <t>Τεχνολογίας Αλιείας - Υδατοκαλλιεργειών</t>
   </si>
   <si>
-    <t>Στήλη5</t>
+    <t>existsinNewest</t>
+  </si>
+  <si>
+    <t>idryma</t>
+  </si>
+  <si>
+    <t>sxoli</t>
+  </si>
+  <si>
+    <t>eidika</t>
+  </si>
+  <si>
+    <t>typos</t>
+  </si>
+  <si>
+    <t>poli</t>
+  </si>
+  <si>
+    <t>vasi</t>
+  </si>
+  <si>
+    <t>ΑΛΕΞΑΝΔΡΕΙΟ ΤΕΙ ΘΕΣΣΑΛΟΝΙΚΗΣ</t>
+  </si>
+  <si>
+    <t>ΤΕΙ ΣΤΕΡΕΑΣ ΕΛΛΑΔΑΣ</t>
+  </si>
+  <si>
+    <t>ΤΕΙ ΔΥΤΙΚΗΣ ΕΛΛΑΔΑΣ</t>
+  </si>
+  <si>
+    <t>ΤΕΙ ΗΠΕΙΡΟΥ</t>
+  </si>
+  <si>
+    <t>ΤΕΙ ΘΕΣΣΑΛΙΑΣ</t>
+  </si>
+  <si>
+    <t>ΤΕΙ ΠΕΛΟΠΟΝΝΗΣΟΥ</t>
+  </si>
+  <si>
+    <t>ΤΕΙ ΔΥΤΙΚΗΣ ΜΑΚΕΔΟΝΙΑΣ</t>
+  </si>
+  <si>
+    <t>ΤΕΙ ΚΡΗΤΗΣ</t>
+  </si>
+  <si>
+    <t>ΤΕΙ ΑΝΑΤΟΛΙΚΗΣ ΜΑΚΕΔΟΝΙΑΣ &amp; ΘΡΑΚΗΣ</t>
+  </si>
+  <si>
+    <t>ΤΕΙ ΙΟΝΙΩΝ ΝΗΣΩΝ</t>
   </si>
 </sst>
 </file>
@@ -1014,10 +612,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{FCAF938C-609E-47DB-A943-8D7C4091C680}" uniqueName="1" name="ID" queryTableFieldId="1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{1DFDE1B2-DF29-4739-99F0-8B71167BBDF4}" uniqueName="2" name="Mixanografiko" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{930E6DA2-CE09-4701-8824-7F46910F8A31}" uniqueName="3" name="Σχολή" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{71EE9B97-0839-4C65-90E4-BC26A53B2997}" uniqueName="4" name="Στήλη3" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{32076B3A-0A59-4229-A41D-5D4022F504C9}" uniqueName="5" name="Στήλη4" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{D71CD6AB-B45B-4D89-959B-D2B751D98F6A}" uniqueName="16" name="Στήλη5" queryTableFieldId="16" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{930E6DA2-CE09-4701-8824-7F46910F8A31}" uniqueName="3" name="idryma" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{71EE9B97-0839-4C65-90E4-BC26A53B2997}" uniqueName="4" name="sxoli" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{32076B3A-0A59-4229-A41D-5D4022F504C9}" uniqueName="5" name="eidika" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{D71CD6AB-B45B-4D89-959B-D2B751D98F6A}" uniqueName="16" name="existsinNewest" queryTableFieldId="16" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1322,51 +920,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2ACCCEF-2470-4909-B116-6936FA277E4C}">
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B128" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="10.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="80.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="63.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="E1" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>424</v>
       </c>
@@ -1374,23 +973,23 @@
         <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="E2"/>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>19029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>474</v>
       </c>
@@ -1398,25 +997,25 @@
         <v>831</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>18915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>427</v>
       </c>
@@ -1424,23 +1023,23 @@
         <v>297</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="E4"/>
       <c r="G4" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>18808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>430</v>
       </c>
@@ -1448,23 +1047,23 @@
         <v>299</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>186</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="E5"/>
       <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I5" s="1">
+        <v>18710</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>476</v>
       </c>
@@ -1472,25 +1071,25 @@
         <v>836</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>18694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>477</v>
       </c>
@@ -1498,25 +1097,25 @@
         <v>846</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>18662</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>428</v>
       </c>
@@ -1524,23 +1123,23 @@
         <v>301</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="E8"/>
       <c r="G8" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>18597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>429</v>
       </c>
@@ -1548,23 +1147,23 @@
         <v>300</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="E9"/>
       <c r="G9" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1">
+        <v>18564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>475</v>
       </c>
@@ -1572,25 +1171,25 @@
         <v>841</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>18526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>426</v>
       </c>
@@ -1598,23 +1197,23 @@
         <v>304</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="E11"/>
       <c r="G11" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1">
+        <v>18519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>425</v>
       </c>
@@ -1622,23 +1221,23 @@
         <v>302</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="E12"/>
       <c r="G12" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1">
+        <v>18451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>445</v>
       </c>
@@ -1646,23 +1245,23 @@
         <v>303</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="E13"/>
       <c r="G13" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>18382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>446</v>
       </c>
@@ -1670,23 +1269,23 @@
         <v>305</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="E14"/>
       <c r="G14" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1">
+        <v>18344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>464</v>
       </c>
@@ -1694,23 +1293,23 @@
         <v>289</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="E15"/>
       <c r="G15" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>18198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>465</v>
       </c>
@@ -1718,23 +1317,23 @@
         <v>291</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="E16"/>
       <c r="G16" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1">
+        <v>18193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>473</v>
       </c>
@@ -1742,25 +1341,25 @@
         <v>851</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>196</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>18172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>433</v>
       </c>
@@ -1768,23 +1367,23 @@
         <v>307</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>198</v>
+        <v>58</v>
       </c>
       <c r="E18"/>
       <c r="G18" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>18094</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>390</v>
       </c>
@@ -1792,23 +1391,23 @@
         <v>277</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>199</v>
+        <v>59</v>
       </c>
       <c r="E19"/>
       <c r="G19" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>18051</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>466</v>
       </c>
@@ -1816,23 +1415,23 @@
         <v>293</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>186</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="E20"/>
       <c r="G20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I20" s="1">
+        <v>18008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>410</v>
       </c>
@@ -1840,25 +1439,25 @@
         <v>401</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>17924</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>392</v>
       </c>
@@ -1866,23 +1465,23 @@
         <v>279</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>199</v>
+        <v>59</v>
       </c>
       <c r="E22"/>
       <c r="G22" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1">
+        <v>17889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>434</v>
       </c>
@@ -1890,23 +1489,23 @@
         <v>308</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>198</v>
+        <v>58</v>
       </c>
       <c r="E23"/>
       <c r="G23" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="I23" s="1">
+        <v>17829</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>468</v>
       </c>
@@ -1914,23 +1513,23 @@
         <v>263</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="E24"/>
       <c r="G24" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>17761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>405</v>
       </c>
@@ -1938,23 +1537,23 @@
         <v>294</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="E25"/>
       <c r="G25" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>17622</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>411</v>
       </c>
@@ -1962,25 +1561,25 @@
         <v>403</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I26" s="1">
+        <v>17588</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>393</v>
       </c>
@@ -1988,23 +1587,23 @@
         <v>281</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>186</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>199</v>
+        <v>59</v>
       </c>
       <c r="E27"/>
       <c r="G27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I27" s="1">
+        <v>17587</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>391</v>
       </c>
@@ -2012,23 +1611,23 @@
         <v>282</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>199</v>
+        <v>59</v>
       </c>
       <c r="E28"/>
       <c r="G28" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I28" s="1">
+        <v>17586</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>437</v>
       </c>
@@ -2036,23 +1635,23 @@
         <v>290</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c r="E29"/>
       <c r="G29" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="I29" s="1">
+        <v>17522</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>470</v>
       </c>
@@ -2060,23 +1659,23 @@
         <v>265</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="E30"/>
       <c r="G30" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I30" s="1">
+        <v>17349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>396</v>
       </c>
@@ -2084,23 +1683,23 @@
         <v>284</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>206</v>
+        <v>66</v>
       </c>
       <c r="E31"/>
       <c r="G31" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="I31" s="1">
+        <v>17222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>472</v>
       </c>
@@ -2108,23 +1707,23 @@
         <v>267</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>186</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="E32"/>
       <c r="G32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I32" s="1">
+        <v>17096</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>395</v>
       </c>
@@ -2132,23 +1731,23 @@
         <v>325</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>208</v>
+        <v>68</v>
       </c>
       <c r="E33"/>
       <c r="G33" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>17085</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>394</v>
       </c>
@@ -2156,23 +1755,23 @@
         <v>280</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="E34"/>
       <c r="G34" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="I34" s="1">
+        <v>17050</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>438</v>
       </c>
@@ -2180,28 +1779,28 @@
         <v>409</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I35" s="1">
+        <v>17028</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>467</v>
       </c>
@@ -2209,23 +1808,23 @@
         <v>683</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="E36"/>
       <c r="G36" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I36" s="1">
+        <v>17023</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>442</v>
       </c>
@@ -2233,23 +1832,23 @@
         <v>306</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="E37"/>
       <c r="G37" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1">
+        <v>17011</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>471</v>
       </c>
@@ -2257,23 +1856,23 @@
         <v>269</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="E38"/>
       <c r="G38" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="I38" s="1">
+        <v>16867</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>469</v>
       </c>
@@ -2281,23 +1880,23 @@
         <v>270</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="E39"/>
       <c r="G39" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I39" s="1">
+        <v>16825</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>409</v>
       </c>
@@ -2305,23 +1904,23 @@
         <v>328</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="E40"/>
       <c r="G40" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1">
+        <v>16631</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>517</v>
       </c>
@@ -2329,25 +1928,25 @@
         <v>617</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I41" s="1">
+        <v>16535</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>422</v>
       </c>
@@ -2355,23 +1954,23 @@
         <v>680</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="D42" t="s">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="E42"/>
       <c r="G42" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I42" s="1">
+        <v>16473</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>414</v>
       </c>
@@ -2379,25 +1978,25 @@
         <v>405</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I43" s="1">
+        <v>16372</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>456</v>
       </c>
@@ -2405,23 +2004,23 @@
         <v>178</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="E44"/>
       <c r="G44" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I44" s="1">
+        <v>16175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>397</v>
       </c>
@@ -2429,23 +2028,23 @@
         <v>273</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="E45"/>
       <c r="G45" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I45" s="1">
+        <v>16162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>447</v>
       </c>
@@ -2453,23 +2052,23 @@
         <v>128</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="E46"/>
       <c r="G46" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1">
+        <v>16059</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>413</v>
       </c>
@@ -2477,25 +2076,25 @@
         <v>402</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="I47" s="1">
+        <v>15825</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>415</v>
       </c>
@@ -2503,23 +2102,23 @@
         <v>323</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="D48" t="s">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="E48"/>
       <c r="G48" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>15682</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>435</v>
       </c>
@@ -2527,23 +2126,23 @@
         <v>681</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="D49" t="s">
-        <v>225</v>
+        <v>84</v>
       </c>
       <c r="E49"/>
       <c r="G49" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I49" s="1">
+        <v>15490</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>450</v>
       </c>
@@ -2551,23 +2150,23 @@
         <v>140</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="D50" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="E50"/>
       <c r="G50" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I50" s="1">
+        <v>15473</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>443</v>
       </c>
@@ -2575,23 +2174,23 @@
         <v>682</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="E51"/>
       <c r="G51" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I51" s="1">
+        <v>15462</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>482</v>
       </c>
@@ -2599,25 +2198,25 @@
         <v>719</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="D52" t="s">
-        <v>226</v>
+        <v>85</v>
       </c>
       <c r="F52" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I52" s="1">
+        <v>15433</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>518</v>
       </c>
@@ -2625,25 +2224,25 @@
         <v>659</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="D53" t="s">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="F53" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="I53" s="1">
+        <v>15365</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>412</v>
       </c>
@@ -2651,25 +2250,25 @@
         <v>404</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="E54" t="s">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I54" s="1">
+        <v>15352</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>389</v>
       </c>
@@ -2677,23 +2276,23 @@
         <v>678</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="D55" t="s">
-        <v>228</v>
+        <v>86</v>
       </c>
       <c r="E55"/>
       <c r="G55" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I55" s="1">
+        <v>15346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>404</v>
       </c>
@@ -2701,23 +2300,23 @@
         <v>154</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
-        <v>229</v>
+        <v>87</v>
       </c>
       <c r="E56"/>
       <c r="G56" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I56" s="1">
+        <v>15340</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>407</v>
       </c>
@@ -2725,23 +2324,23 @@
         <v>684</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="D57" t="s">
-        <v>230</v>
+        <v>88</v>
       </c>
       <c r="E57"/>
       <c r="G57" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I57" s="1">
+        <v>15313</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>516</v>
       </c>
@@ -2749,25 +2348,25 @@
         <v>616</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="D58" t="s">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="F58" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I58" s="1">
+        <v>15184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>440</v>
       </c>
@@ -2775,25 +2374,25 @@
         <v>406</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>232</v>
+        <v>89</v>
       </c>
       <c r="E59" t="s">
-        <v>233</v>
+        <v>90</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I59" s="1">
+        <v>15095</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>490</v>
       </c>
@@ -2801,28 +2400,28 @@
         <v>618</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="D60" t="s">
-        <v>234</v>
+        <v>91</v>
       </c>
       <c r="E60" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="I60" s="1">
+        <v>15006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>485</v>
       </c>
@@ -2830,25 +2429,25 @@
         <v>623</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="D61" t="s">
-        <v>235</v>
+        <v>92</v>
       </c>
       <c r="F61" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I61" s="1">
+        <v>14986</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>436</v>
       </c>
@@ -2856,23 +2455,23 @@
         <v>388</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="D62" t="s">
-        <v>236</v>
+        <v>93</v>
       </c>
       <c r="F62"/>
       <c r="G62" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I62" s="1">
+        <v>14930</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>462</v>
       </c>
@@ -2880,23 +2479,23 @@
         <v>369</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="D63" t="s">
-        <v>237</v>
+        <v>94</v>
       </c>
       <c r="F63"/>
       <c r="G63" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="I63" s="1">
+        <v>14815</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>452</v>
       </c>
@@ -2904,25 +2503,25 @@
         <v>141</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>186</v>
+        <v>46</v>
       </c>
       <c r="D64" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="F64" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I64" s="1">
+        <v>14748</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>444</v>
       </c>
@@ -2930,23 +2529,23 @@
         <v>190</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>238</v>
+        <v>95</v>
       </c>
       <c r="D65" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="E65"/>
       <c r="G65" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I65" s="1">
+        <v>14716</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>417</v>
       </c>
@@ -2954,23 +2553,23 @@
         <v>134</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="D66" t="s">
-        <v>239</v>
+        <v>96</v>
       </c>
       <c r="E66"/>
       <c r="G66" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I66" s="1">
+        <v>14674</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>399</v>
       </c>
@@ -2978,25 +2577,25 @@
         <v>274</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="D67" t="s">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="E67" t="s">
-        <v>240</v>
+        <v>97</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I67" s="1">
+        <v>14668</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>488</v>
       </c>
@@ -3004,28 +2603,28 @@
         <v>620</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="D68" t="s">
-        <v>234</v>
+        <v>91</v>
       </c>
       <c r="E68" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="I68" s="1">
+        <v>14654</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>449</v>
       </c>
@@ -3033,23 +2632,23 @@
         <v>164</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="D69" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="E69"/>
       <c r="G69" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I69" s="1">
+        <v>14647</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>491</v>
       </c>
@@ -3057,25 +2656,25 @@
         <v>657</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>225</v>
+        <v>84</v>
       </c>
       <c r="F70" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I70" s="1">
+        <v>14571</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>406</v>
       </c>
@@ -3083,23 +2682,23 @@
         <v>324</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="D71" t="s">
-        <v>242</v>
+        <v>98</v>
       </c>
       <c r="E71"/>
       <c r="G71" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1">
+        <v>14352</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>387</v>
       </c>
@@ -3107,23 +2706,23 @@
         <v>673</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="D72" t="s">
-        <v>243</v>
+        <v>99</v>
       </c>
       <c r="E72"/>
       <c r="G72" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I72" s="1">
+        <v>14273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>451</v>
       </c>
@@ -3131,23 +2730,23 @@
         <v>130</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="D73" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="E73"/>
       <c r="G73" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="I73" s="1">
+        <v>14267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>486</v>
       </c>
@@ -3155,25 +2754,25 @@
         <v>625</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="D74" t="s">
-        <v>235</v>
+        <v>92</v>
       </c>
       <c r="F74" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="I74" s="1">
+        <v>14158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>489</v>
       </c>
@@ -3181,28 +2780,28 @@
         <v>663</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="D75" t="s">
-        <v>234</v>
+        <v>91</v>
       </c>
       <c r="E75" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I75" s="1">
+        <v>14137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>423</v>
       </c>
@@ -3210,23 +2809,23 @@
         <v>168</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="D76" t="s">
-        <v>246</v>
+        <v>100</v>
       </c>
       <c r="E76"/>
       <c r="G76" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I76" s="1">
+        <v>14105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>388</v>
       </c>
@@ -3234,23 +2833,23 @@
         <v>327</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="D77" t="s">
-        <v>247</v>
+        <v>101</v>
       </c>
       <c r="E77"/>
       <c r="G77" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1">
+        <v>14058</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>495</v>
       </c>
@@ -3258,25 +2857,25 @@
         <v>647</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="D78" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="F78" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I78" s="1">
+        <v>13899</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>483</v>
       </c>
@@ -3284,25 +2883,25 @@
         <v>747</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="D79" t="s">
-        <v>226</v>
+        <v>85</v>
       </c>
       <c r="F79" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="I79" s="1">
+        <v>13865</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>432</v>
       </c>
@@ -3310,23 +2909,23 @@
         <v>163</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="D80" t="s">
-        <v>248</v>
+        <v>102</v>
       </c>
       <c r="E80"/>
       <c r="G80" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I80" s="1">
+        <v>13847</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>431</v>
       </c>
@@ -3334,23 +2933,23 @@
         <v>173</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="D81" t="s">
-        <v>249</v>
+        <v>103</v>
       </c>
       <c r="E81"/>
       <c r="G81" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I81" s="1">
+        <v>13841</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>453</v>
       </c>
@@ -3358,23 +2957,23 @@
         <v>132</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="D82" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="E82"/>
       <c r="G82" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I82" s="1">
+        <v>13782</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>386</v>
       </c>
@@ -3382,23 +2981,23 @@
         <v>326</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="D83" t="s">
-        <v>250</v>
+        <v>104</v>
       </c>
       <c r="E83"/>
       <c r="G83" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I83" s="1">
+        <v>13719</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>506</v>
       </c>
@@ -3406,25 +3005,25 @@
         <v>717</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="D84" t="s">
-        <v>251</v>
+        <v>105</v>
       </c>
       <c r="F84" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I84" s="1">
+        <v>13697</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>478</v>
       </c>
@@ -3432,25 +3031,25 @@
         <v>639</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="D85" t="s">
-        <v>252</v>
+        <v>106</v>
       </c>
       <c r="F85" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I85" s="1">
+        <v>13689</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>416</v>
       </c>
@@ -3458,25 +3057,25 @@
         <v>685</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="D86" t="s">
-        <v>253</v>
+        <v>107</v>
       </c>
       <c r="E86" t="s">
-        <v>254</v>
+        <v>108</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I86" s="1">
+        <v>13662</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>418</v>
       </c>
@@ -3484,23 +3083,23 @@
         <v>136</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>186</v>
+        <v>46</v>
       </c>
       <c r="D87" t="s">
-        <v>255</v>
+        <v>109</v>
       </c>
       <c r="E87"/>
       <c r="G87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I87" s="1">
+        <v>13618</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>439</v>
       </c>
@@ -3508,25 +3107,25 @@
         <v>408</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="D88" t="s">
-        <v>232</v>
+        <v>89</v>
       </c>
       <c r="E88" t="s">
-        <v>233</v>
+        <v>90</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I88" s="1">
+        <v>13454</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>402</v>
       </c>
@@ -3534,23 +3133,23 @@
         <v>679</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="D89" t="s">
-        <v>256</v>
+        <v>110</v>
       </c>
       <c r="E89"/>
       <c r="G89" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I89" s="1">
+        <v>13334</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>448</v>
       </c>
@@ -3558,23 +3157,23 @@
         <v>142</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="D90" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="E90"/>
       <c r="G90" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="I90" s="1">
+        <v>13318</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>459</v>
       </c>
@@ -3582,23 +3181,23 @@
         <v>166</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="D91" t="s">
-        <v>257</v>
+        <v>111</v>
       </c>
       <c r="E91"/>
       <c r="G91" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I91" s="1">
+        <v>13314</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>499</v>
       </c>
@@ -3606,25 +3205,25 @@
         <v>649</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="D92" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="F92" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="I92" s="1">
+        <v>13294</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>455</v>
       </c>
@@ -3632,23 +3231,23 @@
         <v>334</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>258</v>
+        <v>112</v>
       </c>
       <c r="D93" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="E93"/>
       <c r="G93" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="I93" s="1">
+        <v>13244</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>492</v>
       </c>
@@ -3656,25 +3255,25 @@
         <v>662</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>259</v>
+        <v>147</v>
       </c>
       <c r="D94" t="s">
-        <v>225</v>
+        <v>84</v>
       </c>
       <c r="F94" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I94" s="1">
+        <v>12956</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>502</v>
       </c>
@@ -3682,25 +3281,25 @@
         <v>694</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="D95" t="s">
-        <v>260</v>
+        <v>113</v>
       </c>
       <c r="F95" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I95" s="1">
+        <v>12940</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>457</v>
       </c>
@@ -3708,23 +3307,23 @@
         <v>156</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="D96" t="s">
-        <v>261</v>
+        <v>114</v>
       </c>
       <c r="F96"/>
       <c r="G96" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="I96" s="1">
+        <v>12840</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>501</v>
       </c>
@@ -3732,25 +3331,25 @@
         <v>742</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="D97" t="s">
-        <v>262</v>
+        <v>115</v>
       </c>
       <c r="F97" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I97" s="1">
+        <v>12821</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>484</v>
       </c>
@@ -3758,25 +3357,25 @@
         <v>628</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>263</v>
+        <v>148</v>
       </c>
       <c r="D98" t="s">
-        <v>226</v>
+        <v>85</v>
       </c>
       <c r="F98" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="I98" s="1">
+        <v>12817</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>454</v>
       </c>
@@ -3784,23 +3383,23 @@
         <v>143</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>264</v>
+        <v>116</v>
       </c>
       <c r="D99" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="F99"/>
       <c r="G99" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I99" s="1">
+        <v>12777</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>496</v>
       </c>
@@ -3808,25 +3407,25 @@
         <v>654</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="D100" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="F100" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="I100" s="1">
+        <v>12573</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>460</v>
       </c>
@@ -3834,23 +3433,23 @@
         <v>158</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="D101" t="s">
-        <v>257</v>
+        <v>111</v>
       </c>
       <c r="F101"/>
       <c r="G101" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I101" s="1">
+        <v>12495</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>498</v>
       </c>
@@ -3858,25 +3457,25 @@
         <v>651</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="D102" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="F102" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="I102" s="1">
+        <v>12428</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>401</v>
       </c>
@@ -3884,23 +3483,23 @@
         <v>275</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="D103" t="s">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c r="F103"/>
       <c r="G103" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I103" s="1">
+        <v>12382</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>497</v>
       </c>
@@ -3908,25 +3507,25 @@
         <v>652</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="D104" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="F104" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="I104" s="1">
+        <v>12316</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>458</v>
       </c>
@@ -3934,23 +3533,23 @@
         <v>341</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>258</v>
+        <v>112</v>
       </c>
       <c r="D105" t="s">
-        <v>261</v>
+        <v>114</v>
       </c>
       <c r="E105"/>
       <c r="G105" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="I105" s="1">
+        <v>12289</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>398</v>
       </c>
@@ -3958,25 +3557,25 @@
         <v>360</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="D106" t="s">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="E106" t="s">
-        <v>266</v>
+        <v>118</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I106" s="1">
+        <v>12284</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>419</v>
       </c>
@@ -3984,23 +3583,23 @@
         <v>160</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="D107" t="s">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c r="E107"/>
       <c r="G107" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="I107" s="1">
+        <v>12275</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>494</v>
       </c>
@@ -4008,25 +3607,25 @@
         <v>653</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>263</v>
+        <v>148</v>
       </c>
       <c r="D108" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="F108" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I108" s="1">
+        <v>12264</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>503</v>
       </c>
@@ -4034,25 +3633,25 @@
         <v>692</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="D109" t="s">
-        <v>260</v>
+        <v>113</v>
       </c>
       <c r="F109" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="I109" s="1">
+        <v>12126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>507</v>
       </c>
@@ -4060,25 +3659,25 @@
         <v>515</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="D110" t="s">
-        <v>251</v>
+        <v>105</v>
       </c>
       <c r="F110" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I110" s="1">
+        <v>12072</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>441</v>
       </c>
@@ -4086,28 +3685,28 @@
         <v>407</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>268</v>
+        <v>120</v>
       </c>
       <c r="D111" t="s">
-        <v>232</v>
+        <v>89</v>
       </c>
       <c r="E111" t="s">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="I111" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>421</v>
       </c>
@@ -4115,23 +3714,23 @@
         <v>162</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>264</v>
+        <v>116</v>
       </c>
       <c r="D112" t="s">
-        <v>269</v>
+        <v>121</v>
       </c>
       <c r="E112"/>
       <c r="G112" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I112" s="1">
+        <v>11932</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>508</v>
       </c>
@@ -4139,25 +3738,25 @@
         <v>739</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="D113" t="s">
-        <v>251</v>
+        <v>105</v>
       </c>
       <c r="F113" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="I113" s="1">
+        <v>11779</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>408</v>
       </c>
@@ -4165,23 +3764,23 @@
         <v>372</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>264</v>
+        <v>116</v>
       </c>
       <c r="D114" t="s">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="E114"/>
       <c r="G114" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I114" s="1">
+        <v>11770</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>493</v>
       </c>
@@ -4189,25 +3788,25 @@
         <v>744</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c r="D115" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="F115" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="I115" s="1">
+        <v>11541</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>512</v>
       </c>
@@ -4215,25 +3814,25 @@
         <v>759</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="D116" t="s">
-        <v>272</v>
+        <v>123</v>
       </c>
       <c r="F116" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I116" s="1">
+        <v>11254</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>463</v>
       </c>
@@ -4241,23 +3840,23 @@
         <v>367</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>268</v>
+        <v>120</v>
       </c>
       <c r="D117" t="s">
-        <v>273</v>
+        <v>124</v>
       </c>
       <c r="E117"/>
       <c r="G117" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="I117" s="1">
+        <v>11223</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>505</v>
       </c>
@@ -4265,25 +3864,25 @@
         <v>546</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>274</v>
+        <v>150</v>
       </c>
       <c r="D118" t="s">
-        <v>251</v>
+        <v>105</v>
       </c>
       <c r="F118" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="I118" s="1">
+        <v>10975</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>500</v>
       </c>
@@ -4291,25 +3890,25 @@
         <v>752</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c r="D119" t="s">
-        <v>275</v>
+        <v>125</v>
       </c>
       <c r="F119" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="I119" s="1">
+        <v>10946</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>385</v>
       </c>
@@ -4317,23 +3916,23 @@
         <v>353</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="D120" t="s">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="E120"/>
       <c r="G120" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I120" s="1">
+        <v>10805</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>461</v>
       </c>
@@ -4341,23 +3940,23 @@
         <v>276</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>264</v>
+        <v>116</v>
       </c>
       <c r="D121" t="s">
-        <v>277</v>
+        <v>127</v>
       </c>
       <c r="E121"/>
       <c r="G121" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I121" s="1">
+        <v>10713</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>420</v>
       </c>
@@ -4365,25 +3964,25 @@
         <v>250</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>264</v>
+        <v>116</v>
       </c>
       <c r="D122" t="s">
-        <v>278</v>
+        <v>128</v>
       </c>
       <c r="F122" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I122" s="1">
+        <v>10550</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>403</v>
       </c>
@@ -4391,25 +3990,25 @@
         <v>271</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>186</v>
+        <v>46</v>
       </c>
       <c r="D123" t="s">
-        <v>279</v>
+        <v>129</v>
       </c>
       <c r="F123" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="I123" s="1">
+        <v>10526</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>514</v>
       </c>
@@ -4417,25 +4016,25 @@
         <v>761</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="D124" t="s">
-        <v>272</v>
+        <v>123</v>
       </c>
       <c r="F124" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="I124" s="1">
+        <v>10394</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>487</v>
       </c>
@@ -4443,28 +4042,28 @@
         <v>696</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="D125" t="s">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="E125" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I125" s="1">
+        <v>10359</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>511</v>
       </c>
@@ -4472,25 +4071,25 @@
         <v>758</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>263</v>
+        <v>148</v>
       </c>
       <c r="D126" t="s">
-        <v>272</v>
+        <v>123</v>
       </c>
       <c r="F126" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I126" s="1">
+        <v>10075</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>513</v>
       </c>
@@ -4498,25 +4097,25 @@
         <v>760</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="D127" t="s">
-        <v>272</v>
+        <v>123</v>
       </c>
       <c r="F127" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I127" s="1">
+        <v>9992</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>400</v>
       </c>
@@ -4524,23 +4123,23 @@
         <v>212</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="D128" t="s">
-        <v>281</v>
+        <v>131</v>
       </c>
       <c r="E128"/>
       <c r="G128" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I128" s="1">
+        <v>9925</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>510</v>
       </c>
@@ -4548,25 +4147,25 @@
         <v>757</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="D129" t="s">
-        <v>272</v>
+        <v>123</v>
       </c>
       <c r="F129" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I129" s="1">
+        <v>9633</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>509</v>
       </c>
@@ -4574,25 +4173,25 @@
         <v>557</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="D130" t="s">
-        <v>272</v>
+        <v>123</v>
       </c>
       <c r="F130" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="I130" s="1">
+        <v>9523</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>479</v>
       </c>
@@ -4600,25 +4199,25 @@
         <v>550</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c r="D131" t="s">
-        <v>282</v>
+        <v>132</v>
       </c>
       <c r="F131" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="I131" s="1">
+        <v>9420</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>515</v>
       </c>
@@ -4626,25 +4225,25 @@
         <v>762</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>259</v>
+        <v>147</v>
       </c>
       <c r="D132" t="s">
-        <v>272</v>
+        <v>123</v>
       </c>
       <c r="F132" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="I132" s="1">
+        <v>9419</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>480</v>
       </c>
@@ -4652,25 +4251,25 @@
         <v>553</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="D133" t="s">
-        <v>282</v>
+        <v>132</v>
       </c>
       <c r="F133" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="I133" s="1">
+        <v>9358</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>481</v>
       </c>
@@ -4678,25 +4277,25 @@
         <v>551</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="D134" t="s">
-        <v>282</v>
+        <v>132</v>
       </c>
       <c r="F134" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="I134" s="1">
+        <v>9207</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>504</v>
       </c>
@@ -4704,22 +4303,22 @@
         <v>555</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="D135" t="s">
-        <v>283</v>
+        <v>133</v>
       </c>
       <c r="F135" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>175</v>
+        <v>37</v>
+      </c>
+      <c r="I135" s="1">
+        <v>9144</v>
       </c>
     </row>
   </sheetData>
